--- a/src/test/resources/Group7_SearchBar.xlsx
+++ b/src/test/resources/Group7_SearchBar.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vaish\Downloads\capg\Cumcumber\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vaish\Downloads\capg\searchbar_cucumber\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B88D6CC8-4DC4-45C2-86D2-D6B4D1A42D48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E26D448D-378D-4949-9E24-37D01EFDDFFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A941A1F1-2F56-4FA8-A511-761E2034F492}"/>
   </bookViews>
@@ -36,9 +36,6 @@
     <t>Input</t>
   </si>
   <si>
-    <t xml:space="preserve"> Verify that user is able to search product and able to click product in dropdown</t>
-  </si>
-  <si>
     <t>verify that user is able to search for desire product using multiple languages- negative testcase</t>
   </si>
   <si>
@@ -61,6 +58,9 @@
   </si>
   <si>
     <t>jwdiyjw</t>
+  </si>
+  <si>
+    <t>Verify that user is able to search product and able to click product in dropdown</t>
   </si>
 </sst>
 </file>
@@ -448,7 +448,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -467,7 +467,7 @@
     </row>
     <row r="2" spans="1:2" ht="43.8" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -475,34 +475,34 @@
     </row>
     <row r="3" spans="1:2" ht="26.4">
       <c r="A3" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="25.2" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="25.2" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="26.4">
       <c r="A6" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
